--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Generic.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Generic.xlsx
@@ -79,7 +79,18 @@
   <si>
     <t>wait(2);
 validate1;
-link_Click(Signature_test_link);
+link_Click(generic_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0443_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(generic_test_link);
 wait(2);
 validate2;
 SelectTestToRun(VT187_0444_string);
@@ -88,24 +99,13 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
-validate1;
-link_Click(Signature_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0443_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-validate4;</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=RE 2.2 Tests
 };
 validate2
 {
-validate_PageTitle=Signature
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Generic
 };
 validate3
 {
@@ -123,7 +123,7 @@
 };
 validate2
 {
-validate_PageTitle=Signature
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : Generic
 };
 validate3
 {
@@ -621,7 +621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -694,7 +696,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="204.75" thickBot="1">
+    <row r="3" spans="1:11" ht="217.5" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -712,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>19</v>
@@ -721,7 +723,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="204.75" thickBot="1">
+    <row r="4" spans="1:11" ht="217.5" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -739,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>20</v>
